--- a/data/trans_dic/P1802_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Habitat-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.1263744802051347</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1375129890368405</v>
+        <v>0.1375129890368404</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1729721644310262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1675923333074319</v>
+        <v>0.167592333307432</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1496394192662664</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.102613322800184</v>
+        <v>0.103463324847575</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1130725288971467</v>
+        <v>0.1142789401747365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1466355329273166</v>
+        <v>0.1438858768393579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1459612294026096</v>
+        <v>0.1460879649918512</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1297074713451434</v>
+        <v>0.1308887111499063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1382133892091731</v>
+        <v>0.1362549277578096</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.152430417882984</v>
+        <v>0.1539892078588606</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1643443929055099</v>
+        <v>0.1654360731338317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2065676788860451</v>
+        <v>0.2018910411137945</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1942049700968176</v>
+        <v>0.191685769199846</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1708365561454359</v>
+        <v>0.1707917204002544</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1737427535517284</v>
+        <v>0.1729956417766114</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.2059081848324032</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1479438750627999</v>
+        <v>0.1479438750627998</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1840024756913586</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.140238437040634</v>
+        <v>0.1385526253592831</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1073568401714907</v>
+        <v>0.1078254190918674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1823488134910189</v>
+        <v>0.1804233321438923</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1302682251273087</v>
+        <v>0.1319483026816548</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1672960726749247</v>
+        <v>0.1673523725217865</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1249579129389426</v>
+        <v>0.1243004641812457</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1876199119995231</v>
+        <v>0.1891020269537983</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.151548695105212</v>
+        <v>0.1519149619533682</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2355529696094648</v>
+        <v>0.2339708458293359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1661857612132662</v>
+        <v>0.168044127968228</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2030714717862672</v>
+        <v>0.2026030677740673</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1520315880728906</v>
+        <v>0.1521343436594162</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.1652717412743428</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1677165514829634</v>
+        <v>0.1677165514829635</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1140017394045621</v>
+        <v>0.1142024231089017</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1099912532841829</v>
+        <v>0.1114905234821833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1649742261134776</v>
+        <v>0.164591407832848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1764399744113594</v>
+        <v>0.1765732559134565</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1473715496158134</v>
+        <v>0.1454494439763499</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1487822661424975</v>
+        <v>0.1507671015364226</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1640225361321414</v>
+        <v>0.1630043642004598</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1599229811059672</v>
+        <v>0.1634286733450092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2229700422297272</v>
+        <v>0.223376773084952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2243019571416708</v>
+        <v>0.2287650590806761</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1857445368816989</v>
+        <v>0.1850533410402743</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1854462439301687</v>
+        <v>0.1867695370597289</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1185358534087662</v>
+        <v>0.1202459705876045</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1746994155046189</v>
+        <v>0.1743798931384728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.15567493260542</v>
+        <v>0.1578498870574876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2080277072955609</v>
+        <v>0.2094972751316074</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.144973973567114</v>
+        <v>0.144616646640971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1985663411772212</v>
+        <v>0.1982298701316326</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1632460629141126</v>
+        <v>0.163989516377819</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2274933809489878</v>
+        <v>0.2276957586304079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2066751317967376</v>
+        <v>0.2066921776374282</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2491027801708524</v>
+        <v>0.2494364012040668</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1803374231147273</v>
+        <v>0.1801603810518942</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2319188322932842</v>
+        <v>0.2320220421872242</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1318809573924168</v>
+        <v>0.1313151455894135</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1374287181363199</v>
+        <v>0.1391304719102425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1750872298406281</v>
+        <v>0.1736576912159333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.17793233463147</v>
+        <v>0.1758141308863386</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1575395509821492</v>
+        <v>0.1574591936320326</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1618553402134795</v>
+        <v>0.1609210049243604</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1568060713198146</v>
+        <v>0.1567554798850076</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.163037165228758</v>
+        <v>0.1655407508346795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2022206029643789</v>
+        <v>0.2007589133787732</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1992049447352268</v>
+        <v>0.1982585426646914</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1765954239699091</v>
+        <v>0.1760526180127824</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1784459698150788</v>
+        <v>0.1785903025396678</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69243</v>
+        <v>69817</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>78100</v>
+        <v>78934</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>98662</v>
+        <v>96812</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>107006</v>
+        <v>107099</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>174799</v>
+        <v>176391</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>196791</v>
+        <v>194003</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>102860</v>
+        <v>103912</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>113514</v>
+        <v>114268</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>138987</v>
+        <v>135840</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>142374</v>
+        <v>140527</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>230226</v>
+        <v>230166</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>247379</v>
+        <v>246315</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>143384</v>
+        <v>141660</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>112608</v>
+        <v>113100</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>190174</v>
+        <v>188166</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>139496</v>
+        <v>141295</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>345524</v>
+        <v>345640</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>264880</v>
+        <v>263487</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>191828</v>
+        <v>193344</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>158962</v>
+        <v>159346</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>245661</v>
+        <v>244011</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>177958</v>
+        <v>179948</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>419412</v>
+        <v>418445</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>322270</v>
+        <v>322488</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>86590</v>
+        <v>86743</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>88235</v>
+        <v>89438</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>129507</v>
+        <v>129206</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>142850</v>
+        <v>142958</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>227625</v>
+        <v>224656</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>239811</v>
+        <v>243010</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>124584</v>
+        <v>123810</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>128290</v>
+        <v>131102</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>175034</v>
+        <v>175353</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>181600</v>
+        <v>185213</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>286894</v>
+        <v>285827</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>298906</v>
+        <v>301039</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>111135</v>
+        <v>112739</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>172824</v>
+        <v>172508</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>162490</v>
+        <v>164760</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>232649</v>
+        <v>234293</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>287244</v>
+        <v>286536</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>418503</v>
+        <v>417794</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>153054</v>
+        <v>153751</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>225051</v>
+        <v>225252</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>215723</v>
+        <v>215741</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>278586</v>
+        <v>278959</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>357311</v>
+        <v>356960</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>488797</v>
+        <v>489015</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>447650</v>
+        <v>445730</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>485273</v>
+        <v>491282</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>620604</v>
+        <v>615537</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>664031</v>
+        <v>656126</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1093150</v>
+        <v>1092592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1175559</v>
+        <v>1168773</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>532255</v>
+        <v>532083</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>575699</v>
+        <v>584539</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>716779</v>
+        <v>711598</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>743419</v>
+        <v>739887</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1225377</v>
+        <v>1221610</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1296057</v>
+        <v>1297105</v>
       </c>
     </row>
     <row r="24">
